--- a/user_input_files/planillas-web/Gabinetes.xlsx
+++ b/user_input_files/planillas-web/Gabinetes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="87">
   <si>
     <t>ID Gabinete</t>
   </si>
@@ -64,6 +64,42 @@
     <t>Observaciones</t>
   </si>
   <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Dimensiones</t>
+  </si>
+  <si>
+    <t>Marca</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Capacidad Equipos</t>
+  </si>
+  <si>
+    <t>Switches Instalados</t>
+  </si>
+  <si>
+    <t>UPS Instalados</t>
+  </si>
+  <si>
+    <t>Fuentes Instaladas</t>
+  </si>
+  <si>
+    <t>NVR/DVR Instalados</t>
+  </si>
+  <si>
+    <t>Fecha Instalación</t>
+  </si>
+  <si>
+    <t>Fecha Última Revisión</t>
+  </si>
+  <si>
+    <t>Temperatura Promedio (°C)</t>
+  </si>
+  <si>
     <t>GAB-001</t>
   </si>
   <si>
@@ -73,6 +109,24 @@
     <t>GAB-003</t>
   </si>
   <si>
+    <t>GAB-004</t>
+  </si>
+  <si>
+    <t>GAB-005</t>
+  </si>
+  <si>
+    <t>GAB-006</t>
+  </si>
+  <si>
+    <t>UBI-006</t>
+  </si>
+  <si>
+    <t>UBI-007</t>
+  </si>
+  <si>
+    <t>UBI-004</t>
+  </si>
+  <si>
     <t>Rack Edificio O - 3P</t>
   </si>
   <si>
@@ -133,6 +187,9 @@
     <t>Funcionando</t>
   </si>
   <si>
+    <t>Activo</t>
+  </si>
+  <si>
     <t>13/10/2025</t>
   </si>
   <si>
@@ -149,6 +206,75 @@
   </si>
   <si>
     <t>Alimenta cámaras perimetrales</t>
+  </si>
+  <si>
+    <t>Requiere ventilación adicional</t>
+  </si>
+  <si>
+    <t>Gabinete central campus Angol</t>
+  </si>
+  <si>
+    <t>Alimenta cámaras Edificio L</t>
+  </si>
+  <si>
+    <t>Gabinete Exterior IP65</t>
+  </si>
+  <si>
+    <t>Rack 12U</t>
+  </si>
+  <si>
+    <t>Gabinete Mural 6U</t>
+  </si>
+  <si>
+    <t>60x40x25 cm</t>
+  </si>
+  <si>
+    <t>60x60x60 cm</t>
+  </si>
+  <si>
+    <t>60x45x30 cm</t>
+  </si>
+  <si>
+    <t>Outdoor Tech</t>
+  </si>
+  <si>
+    <t>Panduit</t>
+  </si>
+  <si>
+    <t>APC</t>
+  </si>
+  <si>
+    <t>Acero inoxidable</t>
+  </si>
+  <si>
+    <t>Acero</t>
+  </si>
+  <si>
+    <t>8U</t>
+  </si>
+  <si>
+    <t>12U</t>
+  </si>
+  <si>
+    <t>6U</t>
+  </si>
+  <si>
+    <t>2024-08-05</t>
+  </si>
+  <si>
+    <t>2024-05-12</t>
+  </si>
+  <si>
+    <t>2024-06-20</t>
+  </si>
+  <si>
+    <t>2025-10-01</t>
+  </si>
+  <si>
+    <t>2025-09-18</t>
+  </si>
+  <si>
+    <t>2025-10-10</t>
   </si>
 </sst>
 </file>
@@ -506,13 +632,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:AB7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:28">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -561,134 +687,320 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:28">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O2" t="s">
+        <v>59</v>
+      </c>
+      <c r="P2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="s">
+        <v>59</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M4" t="s">
+        <v>59</v>
+      </c>
+      <c r="N4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O4" t="s">
+        <v>60</v>
+      </c>
+      <c r="P4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" t="s">
+        <v>57</v>
+      </c>
+      <c r="P5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>67</v>
+      </c>
+      <c r="R5" t="s">
+        <v>70</v>
+      </c>
+      <c r="S5" t="s">
+        <v>73</v>
+      </c>
+      <c r="T5" t="s">
+        <v>76</v>
+      </c>
+      <c r="U5" t="s">
+        <v>78</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB5">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" t="s">
+        <v>57</v>
+      </c>
+      <c r="P6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>68</v>
+      </c>
+      <c r="R6" t="s">
+        <v>71</v>
+      </c>
+      <c r="S6" t="s">
+        <v>74</v>
+      </c>
+      <c r="T6" t="s">
+        <v>77</v>
+      </c>
+      <c r="U6" t="s">
+        <v>79</v>
+      </c>
+      <c r="V6">
+        <v>2</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB6">
         <v>22</v>
       </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L2" t="s">
-        <v>40</v>
-      </c>
-      <c r="M2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O2" t="s">
-        <v>40</v>
-      </c>
-      <c r="P2" t="s">
-        <v>42</v>
-      </c>
     </row>
-    <row r="3" spans="1:16">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" t="s">
+    <row r="7" spans="1:28">
+      <c r="A7" t="s">
         <v>33</v>
       </c>
-      <c r="I3" t="s">
+      <c r="B7" t="s">
         <v>36</v>
       </c>
-      <c r="J3" t="s">
-        <v>38</v>
-      </c>
-      <c r="L3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M3" t="s">
-        <v>40</v>
-      </c>
-      <c r="N3" t="s">
-        <v>41</v>
-      </c>
-      <c r="O3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4" t="s">
-        <v>41</v>
-      </c>
-      <c r="M4" t="s">
-        <v>40</v>
-      </c>
-      <c r="N4" t="s">
-        <v>41</v>
-      </c>
-      <c r="O4" t="s">
-        <v>41</v>
-      </c>
-      <c r="P4" t="s">
-        <v>44</v>
+      <c r="J7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>69</v>
+      </c>
+      <c r="R7" t="s">
+        <v>72</v>
+      </c>
+      <c r="S7" t="s">
+        <v>75</v>
+      </c>
+      <c r="T7" t="s">
+        <v>77</v>
+      </c>
+      <c r="U7" t="s">
+        <v>80</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB7">
+        <v>24.8</v>
       </c>
     </row>
   </sheetData>
